--- a/BackTest/2020-01-15 BackTest BTG.xlsx
+++ b/BackTest/2020-01-15 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-37.54149491000007</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-37.54149491000007</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>7710</v>
@@ -521,7 +521,7 @@
         <v>-335.29939491</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>7710</v>
@@ -562,7 +562,7 @@
         <v>-335.29939491</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>7700</v>
@@ -603,7 +603,7 @@
         <v>-335.29939491</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>7700</v>
@@ -644,7 +644,7 @@
         <v>-163.04319491</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>7700</v>
@@ -685,7 +685,7 @@
         <v>-50.51759491000004</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>7715</v>
@@ -726,7 +726,7 @@
         <v>-50.51759491000004</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>7720</v>
@@ -767,9 +767,11 @@
         <v>-50.51759491000004</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7720</v>
+      </c>
       <c r="J10" t="n">
         <v>7710</v>
       </c>
@@ -806,9 +808,11 @@
         <v>-50.51759491000004</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7720</v>
+      </c>
       <c r="J11" t="n">
         <v>7710</v>
       </c>
@@ -845,7 +849,7 @@
         <v>-50.51759491000004</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>7720</v>
@@ -886,7 +890,7 @@
         <v>-68.53679491000004</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>7720</v>
@@ -927,7 +931,7 @@
         <v>-43.55166578000004</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>7705</v>
@@ -968,7 +972,7 @@
         <v>-43.55166578000004</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>7740</v>
@@ -1009,7 +1013,7 @@
         <v>-141.8243681</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>7740</v>
@@ -1050,9 +1054,11 @@
         <v>-141.8243681</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7720</v>
+      </c>
       <c r="J17" t="n">
         <v>7710</v>
       </c>
@@ -1089,9 +1095,11 @@
         <v>-141.8243681</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7720</v>
+      </c>
       <c r="J18" t="n">
         <v>7710</v>
       </c>
@@ -1128,9 +1136,11 @@
         <v>258.59532527</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7720</v>
+      </c>
       <c r="J19" t="n">
         <v>7710</v>
       </c>
@@ -1167,9 +1177,11 @@
         <v>435.59532527</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7750</v>
+      </c>
       <c r="J20" t="n">
         <v>7710</v>
       </c>
@@ -1206,9 +1218,11 @@
         <v>647.59532527</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7770</v>
+      </c>
       <c r="J21" t="n">
         <v>7710</v>
       </c>
@@ -1245,9 +1259,11 @@
         <v>631.31442527</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7780</v>
+      </c>
       <c r="J22" t="n">
         <v>7710</v>
       </c>
@@ -1284,9 +1300,11 @@
         <v>674.45532527</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7750</v>
+      </c>
       <c r="J23" t="n">
         <v>7710</v>
       </c>
@@ -1323,9 +1341,11 @@
         <v>674.45532527</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7760</v>
+      </c>
       <c r="J24" t="n">
         <v>7710</v>
       </c>
@@ -1362,9 +1382,11 @@
         <v>682.94752527</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7760</v>
+      </c>
       <c r="J25" t="n">
         <v>7710</v>
       </c>
@@ -1401,9 +1423,11 @@
         <v>682.94752527</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7790</v>
+      </c>
       <c r="J26" t="n">
         <v>7710</v>
       </c>
@@ -1440,9 +1464,11 @@
         <v>682.94752527</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7790</v>
+      </c>
       <c r="J27" t="n">
         <v>7710</v>
       </c>
@@ -1479,9 +1505,11 @@
         <v>682.94752527</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7790</v>
+      </c>
       <c r="J28" t="n">
         <v>7710</v>
       </c>
@@ -1518,9 +1546,11 @@
         <v>725.2227252700001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7790</v>
+      </c>
       <c r="J29" t="n">
         <v>7710</v>
       </c>
@@ -1557,9 +1587,11 @@
         <v>822.0801252700001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7795</v>
+      </c>
       <c r="J30" t="n">
         <v>7710</v>
       </c>
@@ -1596,9 +1628,11 @@
         <v>930.9963252700001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7800</v>
+      </c>
       <c r="J31" t="n">
         <v>7710</v>
       </c>
@@ -1635,9 +1669,11 @@
         <v>1336.97502527</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7815</v>
+      </c>
       <c r="J32" t="n">
         <v>7710</v>
       </c>
@@ -1674,9 +1710,11 @@
         <v>1336.97502527</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7850</v>
+      </c>
       <c r="J33" t="n">
         <v>7710</v>
       </c>
@@ -1713,9 +1751,11 @@
         <v>1336.97502527</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7850</v>
+      </c>
       <c r="J34" t="n">
         <v>7710</v>
       </c>
@@ -1752,9 +1792,11 @@
         <v>1334.64502527</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7850</v>
+      </c>
       <c r="J35" t="n">
         <v>7710</v>
       </c>
@@ -1791,9 +1833,11 @@
         <v>1376.84602527</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7800</v>
+      </c>
       <c r="J36" t="n">
         <v>7710</v>
       </c>
@@ -1830,9 +1874,11 @@
         <v>1478.84602527</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7805</v>
+      </c>
       <c r="J37" t="n">
         <v>7710</v>
       </c>
@@ -1869,9 +1915,11 @@
         <v>1889.80338451</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7835</v>
+      </c>
       <c r="J38" t="n">
         <v>7710</v>
       </c>
@@ -1908,9 +1956,11 @@
         <v>2803.09778451</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7850</v>
+      </c>
       <c r="J39" t="n">
         <v>7710</v>
       </c>
@@ -1947,9 +1997,11 @@
         <v>2842.69498451</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7920</v>
+      </c>
       <c r="J40" t="n">
         <v>7710</v>
       </c>
@@ -1986,9 +2038,11 @@
         <v>2917.27698451</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7925</v>
+      </c>
       <c r="J41" t="n">
         <v>7710</v>
       </c>
@@ -2025,9 +2079,11 @@
         <v>2867.14698451</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7930</v>
+      </c>
       <c r="J42" t="n">
         <v>7710</v>
       </c>
@@ -2064,9 +2120,11 @@
         <v>2469.74688451</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7900</v>
+      </c>
       <c r="J43" t="n">
         <v>7710</v>
       </c>
@@ -2103,9 +2161,11 @@
         <v>2494.74688451</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7830</v>
+      </c>
       <c r="J44" t="n">
         <v>7710</v>
       </c>
@@ -2142,9 +2202,11 @@
         <v>2494.74688451</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>7890</v>
+      </c>
       <c r="J45" t="n">
         <v>7710</v>
       </c>
@@ -2181,9 +2243,11 @@
         <v>2494.85978451</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7890</v>
+      </c>
       <c r="J46" t="n">
         <v>7710</v>
       </c>
@@ -2220,9 +2284,11 @@
         <v>2619.24138451</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7895</v>
+      </c>
       <c r="J47" t="n">
         <v>7710</v>
       </c>
@@ -2259,9 +2325,11 @@
         <v>3317.095284510001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7900</v>
+      </c>
       <c r="J48" t="n">
         <v>7710</v>
       </c>
@@ -2298,9 +2366,11 @@
         <v>3239.963184510001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>7930</v>
+      </c>
       <c r="J49" t="n">
         <v>7710</v>
       </c>
@@ -2337,9 +2407,11 @@
         <v>3237.963184510001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>7920</v>
+      </c>
       <c r="J50" t="n">
         <v>7710</v>
       </c>
@@ -2376,9 +2448,11 @@
         <v>3265.632484510001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>7865</v>
+      </c>
       <c r="J51" t="n">
         <v>7710</v>
       </c>
@@ -2415,9 +2489,11 @@
         <v>2949.871384510001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7910</v>
+      </c>
       <c r="J52" t="n">
         <v>7710</v>
       </c>
@@ -2454,9 +2530,11 @@
         <v>2949.941384510001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7870</v>
+      </c>
       <c r="J53" t="n">
         <v>7710</v>
       </c>
@@ -2493,9 +2571,11 @@
         <v>2908.503384510001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>7900</v>
+      </c>
       <c r="J54" t="n">
         <v>7710</v>
       </c>
@@ -2532,9 +2612,11 @@
         <v>2935.081184510001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>7870</v>
+      </c>
       <c r="J55" t="n">
         <v>7710</v>
       </c>
@@ -2571,9 +2653,11 @@
         <v>2889.081184510001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7880</v>
+      </c>
       <c r="J56" t="n">
         <v>7710</v>
       </c>
@@ -2610,9 +2694,11 @@
         <v>3102.55458451</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7870</v>
+      </c>
       <c r="J57" t="n">
         <v>7710</v>
       </c>
@@ -2649,9 +2735,11 @@
         <v>3476.41788451</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7890</v>
+      </c>
       <c r="J58" t="n">
         <v>7710</v>
       </c>
@@ -2688,9 +2776,11 @@
         <v>3821.75258451</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7930</v>
+      </c>
       <c r="J59" t="n">
         <v>7710</v>
       </c>
@@ -2727,9 +2817,11 @@
         <v>3824.83258451</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7935</v>
+      </c>
       <c r="J60" t="n">
         <v>7710</v>
       </c>
@@ -2766,9 +2858,11 @@
         <v>4267.54398451</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7945</v>
+      </c>
       <c r="J61" t="n">
         <v>7710</v>
       </c>
@@ -2805,9 +2899,11 @@
         <v>4621.51488451</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7980</v>
+      </c>
       <c r="J62" t="n">
         <v>7710</v>
       </c>
@@ -2844,9 +2940,11 @@
         <v>4510.47558451</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>8000</v>
+      </c>
       <c r="J63" t="n">
         <v>7710</v>
       </c>
@@ -2883,9 +2981,11 @@
         <v>4768.602184509999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7980</v>
+      </c>
       <c r="J64" t="n">
         <v>7710</v>
       </c>
@@ -2922,9 +3022,11 @@
         <v>4932.040484509999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7985</v>
+      </c>
       <c r="J65" t="n">
         <v>7710</v>
       </c>
@@ -2961,9 +3063,11 @@
         <v>5982.894684509999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8020</v>
+      </c>
       <c r="J66" t="n">
         <v>7710</v>
       </c>
@@ -3000,9 +3104,11 @@
         <v>6310.866184509999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8035</v>
+      </c>
       <c r="J67" t="n">
         <v>7710</v>
       </c>
@@ -3039,9 +3145,11 @@
         <v>5931.949484509999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8090</v>
+      </c>
       <c r="J68" t="n">
         <v>7710</v>
       </c>
@@ -3078,9 +3186,11 @@
         <v>4551.399384509999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8055</v>
+      </c>
       <c r="J69" t="n">
         <v>7710</v>
       </c>
@@ -5262,9 +5372,11 @@
         <v>2945.686606049998</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>8150</v>
+      </c>
       <c r="J125" t="n">
         <v>7710</v>
       </c>
@@ -6276,9 +6388,11 @@
         <v>2937.899306049997</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>8170</v>
+      </c>
       <c r="J151" t="n">
         <v>7710</v>
       </c>
@@ -6315,9 +6429,11 @@
         <v>2868.916206049998</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>8230</v>
+      </c>
       <c r="J152" t="n">
         <v>7710</v>
       </c>
@@ -6354,9 +6470,11 @@
         <v>2328.709406049998</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>8200</v>
+      </c>
       <c r="J153" t="n">
         <v>7710</v>
       </c>
@@ -6393,9 +6511,11 @@
         <v>2368.781306049998</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>8120</v>
+      </c>
       <c r="J154" t="n">
         <v>7710</v>
       </c>
@@ -6432,9 +6552,11 @@
         <v>2497.787106049997</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>8170</v>
+      </c>
       <c r="J155" t="n">
         <v>7710</v>
       </c>
@@ -6471,9 +6593,11 @@
         <v>2497.787106049997</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>8180</v>
+      </c>
       <c r="J156" t="n">
         <v>7710</v>
       </c>
@@ -6510,9 +6634,11 @@
         <v>2605.143106049997</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>8180</v>
+      </c>
       <c r="J157" t="n">
         <v>7710</v>
       </c>
@@ -6549,9 +6675,11 @@
         <v>2713.389106049997</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>8200</v>
+      </c>
       <c r="J158" t="n">
         <v>7710</v>
       </c>
@@ -6588,9 +6716,11 @@
         <v>2648.972906049997</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>8205</v>
+      </c>
       <c r="J159" t="n">
         <v>7710</v>
       </c>
@@ -6666,9 +6796,11 @@
         <v>1296.357106049997</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>8175</v>
+      </c>
       <c r="J161" t="n">
         <v>7710</v>
       </c>
@@ -6783,9 +6915,11 @@
         <v>1250.485506049997</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>8130</v>
+      </c>
       <c r="J164" t="n">
         <v>7710</v>
       </c>
@@ -6822,9 +6956,11 @@
         <v>270.2728060499971</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>8130</v>
+      </c>
       <c r="J165" t="n">
         <v>7710</v>
       </c>
@@ -6978,9 +7114,11 @@
         <v>-318.1610939500029</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>8110</v>
+      </c>
       <c r="J169" t="n">
         <v>7710</v>
       </c>
@@ -7017,9 +7155,11 @@
         <v>-318.1610939500029</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>8050</v>
+      </c>
       <c r="J170" t="n">
         <v>7710</v>
       </c>
@@ -7056,9 +7196,11 @@
         <v>-405.2713939500028</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>8050</v>
+      </c>
       <c r="J171" t="n">
         <v>7710</v>
       </c>
@@ -7095,9 +7237,11 @@
         <v>-387.4610939500029</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>7990</v>
+      </c>
       <c r="J172" t="n">
         <v>7710</v>
       </c>
@@ -7134,9 +7278,11 @@
         <v>-384.4610939500029</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>7995</v>
+      </c>
       <c r="J173" t="n">
         <v>7710</v>
       </c>
@@ -7173,9 +7319,11 @@
         <v>-238.5132939500029</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>8070</v>
+      </c>
       <c r="J174" t="n">
         <v>7710</v>
       </c>
@@ -7212,9 +7360,11 @@
         <v>-98.45569395000285</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>8075</v>
+      </c>
       <c r="J175" t="n">
         <v>7710</v>
       </c>
@@ -7251,9 +7401,11 @@
         <v>-108.4556939500029</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>8150</v>
+      </c>
       <c r="J176" t="n">
         <v>7710</v>
       </c>
@@ -7290,9 +7442,11 @@
         <v>-118.4556939500029</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>8145</v>
+      </c>
       <c r="J177" t="n">
         <v>7710</v>
       </c>
@@ -7329,9 +7483,11 @@
         <v>-133.4405939500029</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>8110</v>
+      </c>
       <c r="J178" t="n">
         <v>7710</v>
       </c>
@@ -7368,9 +7524,11 @@
         <v>-60.47159395000287</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>8080</v>
+      </c>
       <c r="J179" t="n">
         <v>7710</v>
       </c>
@@ -7407,9 +7565,11 @@
         <v>-59.42709395000287</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>8100</v>
+      </c>
       <c r="J180" t="n">
         <v>7710</v>
       </c>
@@ -7446,9 +7606,11 @@
         <v>-50.71279395000287</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>8105</v>
+      </c>
       <c r="J181" t="n">
         <v>7710</v>
       </c>
@@ -7485,9 +7647,11 @@
         <v>22.28720604999713</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>8110</v>
+      </c>
       <c r="J182" t="n">
         <v>7710</v>
       </c>
@@ -7524,9 +7688,11 @@
         <v>-35.00619395000287</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>8135</v>
+      </c>
       <c r="J183" t="n">
         <v>7710</v>
       </c>
@@ -7563,9 +7729,11 @@
         <v>156.4488060499971</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>8115</v>
+      </c>
       <c r="J184" t="n">
         <v>7710</v>
       </c>
@@ -8109,9 +8277,11 @@
         <v>34.88480604999713</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>8100</v>
+      </c>
       <c r="J198" t="n">
         <v>7710</v>
       </c>
@@ -8577,9 +8747,11 @@
         <v>67.77940604999714</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>8160</v>
+      </c>
       <c r="J210" t="n">
         <v>7710</v>
       </c>
@@ -8616,9 +8788,11 @@
         <v>152.2695513599971</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>8105</v>
+      </c>
       <c r="J211" t="n">
         <v>7710</v>
       </c>
@@ -8694,9 +8868,11 @@
         <v>125.0002513599971</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>8095</v>
+      </c>
       <c r="J213" t="n">
         <v>7710</v>
       </c>
@@ -8733,9 +8909,11 @@
         <v>192.0327513599971</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>8170</v>
+      </c>
       <c r="J214" t="n">
         <v>7710</v>
       </c>
@@ -11112,7 +11290,7 @@
         <v>13152.1127499</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
@@ -11120,15 +11298,13 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
-        <v>1.127295719844358</v>
-      </c>
-      <c r="M275" t="n">
-        <v>1.001298701298701</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11156,8 +11332,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11189,8 +11371,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11222,8 +11410,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11252,11 +11446,17 @@
         <v>11525.3039499</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11288,8 +11488,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11321,8 +11527,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11354,8 +11566,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11387,8 +11605,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11420,8 +11644,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11453,8 +11683,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11486,8 +11722,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11519,8 +11761,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11552,8 +11800,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11585,8 +11839,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11618,8 +11878,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11651,8 +11917,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11684,8 +11956,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11717,8 +11995,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11750,8 +12034,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11783,8 +12073,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11816,8 +12112,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11849,8 +12151,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11882,8 +12190,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11915,8 +12229,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11948,8 +12268,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11981,8 +12307,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12014,8 +12346,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12047,8 +12385,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12080,8 +12424,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12113,8 +12463,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12146,8 +12502,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12179,8 +12541,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12212,8 +12580,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12245,8 +12619,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12278,8 +12658,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12311,8 +12697,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12344,8 +12736,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12377,8 +12775,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12410,8 +12814,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12443,8 +12853,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12476,8 +12892,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12509,8 +12931,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12542,8 +12970,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12575,8 +13009,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12608,8 +13048,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12641,8 +13087,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12674,8 +13126,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12707,8 +13165,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12740,8 +13204,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12773,8 +13243,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12806,8 +13282,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12839,8 +13321,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12872,8 +13360,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12905,8 +13399,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12938,8 +13438,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12971,8 +13477,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13004,8 +13516,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13037,8 +13555,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13070,8 +13594,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13103,8 +13633,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13136,8 +13672,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13169,8 +13711,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13202,8 +13750,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13232,11 +13786,17 @@
         <v>17411.46417091999</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13265,11 +13825,17 @@
         <v>17596.04211272999</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13298,11 +13864,17 @@
         <v>17599.50241272999</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13331,11 +13903,17 @@
         <v>17599.50241272999</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13364,11 +13942,17 @@
         <v>17599.60171272999</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13400,8 +13984,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13430,11 +14020,17 @@
         <v>17521.35941272999</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13463,11 +14059,17 @@
         <v>17521.35941272999</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13496,11 +14098,17 @@
         <v>18237.67341272999</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13532,8 +14140,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13562,11 +14176,17 @@
         <v>18911.32751272999</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13598,8 +14218,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13628,11 +14254,17 @@
         <v>19481.89691272999</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13664,8 +14296,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13694,11 +14332,17 @@
         <v>20107.58388417999</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13730,8 +14374,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13763,8 +14413,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13796,8 +14452,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13829,8 +14491,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13862,8 +14530,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13895,8 +14569,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13928,8 +14608,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13961,8 +14647,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13994,8 +14686,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14027,8 +14725,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14060,8 +14764,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14093,8 +14803,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14126,8 +14842,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14159,8 +14881,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14192,8 +14920,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14225,8 +14959,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14258,8 +14998,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14291,8 +15037,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14324,8 +15076,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14357,8 +15115,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14390,8 +15154,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14423,8 +15193,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14456,8 +15232,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14489,8 +15271,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14519,11 +15307,17 @@
         <v>20948.85868417998</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14555,8 +15349,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14588,8 +15388,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14621,8 +15427,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14654,8 +15466,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14687,8 +15505,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14720,8 +15544,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14753,8 +15583,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14786,8 +15622,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14819,8 +15661,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14852,8 +15700,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14885,8 +15739,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14918,8 +15778,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14951,8 +15817,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14984,8 +15856,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15017,8 +15895,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15050,8 +15934,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15083,8 +15973,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15116,8 +16012,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15149,8 +16051,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15179,11 +16087,17 @@
         <v>36195.45097208997</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15215,8 +16129,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15245,11 +16165,17 @@
         <v>35771.40317208997</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15281,8 +16207,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15314,8 +16246,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15347,8 +16285,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15380,8 +16324,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15413,8 +16363,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15443,11 +16399,17 @@
         <v>35225.95747208997</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15479,8 +16441,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15512,8 +16480,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15545,8 +16519,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15578,8 +16558,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15611,8 +16597,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15641,15 +16633,23 @@
         <v>34876.50467997997</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L412" t="n">
-        <v>1</v>
-      </c>
-      <c r="M412" t="inlineStr"/>
+        <v>1.194740596627756</v>
+      </c>
+      <c r="M412" t="n">
+        <v>1.001298701298701</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -15872,7 +16872,7 @@
         <v>35183.08113799997</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15905,7 +16905,7 @@
         <v>35183.08113799997</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15971,7 +16971,7 @@
         <v>34985.15503799998</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16037,7 +17037,7 @@
         <v>34840.10963799997</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16070,7 +17070,7 @@
         <v>35023.32593799997</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16103,7 +17103,7 @@
         <v>35023.32593799997</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16136,7 +17136,7 @@
         <v>35023.32593799997</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16169,7 +17169,7 @@
         <v>35320.18113799997</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16202,7 +17202,7 @@
         <v>35320.18113799997</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16235,7 +17235,7 @@
         <v>36042.89923799997</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16268,7 +17268,7 @@
         <v>36527.21803182997</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16301,7 +17301,7 @@
         <v>36036.14263182997</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16367,7 +17367,7 @@
         <v>36810.39236067997</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16400,7 +17400,7 @@
         <v>38599.66826067997</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16433,7 +17433,7 @@
         <v>38765.29566067997</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16466,7 +17466,7 @@
         <v>38181.80663939997</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16499,7 +17499,7 @@
         <v>38633.13871811997</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16565,7 +17565,7 @@
         <v>35136.58331811996</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16598,7 +17598,7 @@
         <v>35587.33825409997</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16631,7 +17631,7 @@
         <v>35587.33825409997</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16664,7 +17664,7 @@
         <v>35315.80945409997</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16697,7 +17697,7 @@
         <v>36069.48705409997</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16730,7 +17730,7 @@
         <v>35022.14435409997</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16763,7 +17763,7 @@
         <v>34124.24463281997</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16796,7 +17796,7 @@
         <v>33470.84213281997</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16829,7 +17829,7 @@
         <v>32696.59546539997</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16862,7 +17862,7 @@
         <v>29591.53896539997</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16895,7 +17895,7 @@
         <v>29106.11646539997</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16928,7 +17928,7 @@
         <v>29221.56546539997</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16961,7 +17961,7 @@
         <v>29391.84936539997</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16994,7 +17994,7 @@
         <v>29410.08046539997</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17027,7 +18027,7 @@
         <v>28515.03076539997</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17060,7 +18060,7 @@
         <v>28903.18676539997</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17093,7 +18093,7 @@
         <v>28740.72206539997</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17126,7 +18126,7 @@
         <v>28752.58156539997</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17159,7 +18159,7 @@
         <v>28396.69896539997</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17192,7 +18192,7 @@
         <v>29392.72646539997</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17225,7 +18225,7 @@
         <v>30288.40656539997</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17258,7 +18258,7 @@
         <v>30134.83646539997</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17291,7 +18291,7 @@
         <v>30491.89786539997</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17324,7 +18324,7 @@
         <v>30687.96016539997</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17885,7 +18885,7 @@
         <v>31764.71815108996</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17918,7 +18918,7 @@
         <v>32031.07029004996</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17951,7 +18951,7 @@
         <v>32538.93509004996</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17984,7 +18984,7 @@
         <v>32927.35699004996</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18017,7 +19017,7 @@
         <v>33601.33959004996</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18050,7 +19050,7 @@
         <v>33357.83849004996</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18149,7 +19149,7 @@
         <v>33235.37629004996</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18182,7 +19182,7 @@
         <v>33977.29599004996</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18215,7 +19215,7 @@
         <v>33876.29599004996</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18248,7 +19248,7 @@
         <v>34141.73379004996</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18281,7 +19281,7 @@
         <v>33849.37849004995</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18314,7 +19314,7 @@
         <v>33311.95539004995</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18347,7 +19347,7 @@
         <v>33838.22489004995</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18380,7 +19380,7 @@
         <v>34447.99559004996</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18413,7 +19413,7 @@
         <v>34447.79729004996</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18446,7 +19446,7 @@
         <v>34324.48639004996</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18479,7 +19479,7 @@
         <v>34324.48639004996</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18512,7 +19512,7 @@
         <v>34504.98639004996</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18545,7 +19545,7 @@
         <v>34383.96339004996</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18578,7 +19578,7 @@
         <v>34127.42339004996</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18611,7 +19611,7 @@
         <v>32797.35369004996</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18644,7 +19644,7 @@
         <v>32737.34869004996</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18677,7 +19677,7 @@
         <v>33032.14519004996</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18710,7 +19710,7 @@
         <v>32348.60789004996</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18743,7 +19743,7 @@
         <v>31866.94529004996</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18776,7 +19776,7 @@
         <v>31971.37959004996</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18809,7 +19809,7 @@
         <v>31974.39449004996</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18842,7 +19842,7 @@
         <v>31890.68419004996</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18875,7 +19875,7 @@
         <v>31872.64500560996</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18908,7 +19908,7 @@
         <v>31872.64500560996</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18941,7 +19941,7 @@
         <v>31872.64500560996</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18974,7 +19974,7 @@
         <v>31975.58690560996</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19007,7 +20007,7 @@
         <v>32003.38222116996</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19040,7 +20040,7 @@
         <v>32139.77432116996</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19073,7 +20073,7 @@
         <v>32133.19892116996</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19106,7 +20106,7 @@
         <v>32230.68872116996</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19139,7 +20139,7 @@
         <v>32419.25932116996</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19172,7 +20172,7 @@
         <v>32308.72912116996</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19205,7 +20205,7 @@
         <v>32282.23022116996</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19238,7 +20238,7 @@
         <v>31543.76422116996</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19271,7 +20271,7 @@
         <v>33355.64112797996</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19304,7 +20304,7 @@
         <v>33354.15052797996</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19337,7 +20337,7 @@
         <v>32977.53212797996</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19370,7 +20370,7 @@
         <v>34391.66252797996</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19403,7 +20403,7 @@
         <v>32726.86732907996</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19436,7 +20436,7 @@
         <v>32576.63202907996</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19469,7 +20469,7 @@
         <v>32387.63042907996</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19502,7 +20502,7 @@
         <v>32588.15512907997</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19535,7 +20535,7 @@
         <v>32581.22462907997</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19568,7 +20568,7 @@
         <v>32563.61592907997</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19601,7 +20601,7 @@
         <v>32563.61592907997</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19634,7 +20634,7 @@
         <v>32647.40422907997</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19667,7 +20667,7 @@
         <v>32647.40422907997</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19700,7 +20700,7 @@
         <v>32647.40422907997</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19733,7 +20733,7 @@
         <v>32918.94432907997</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19766,7 +20766,7 @@
         <v>33076.51822907997</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19799,7 +20799,7 @@
         <v>33054.83822907997</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19832,7 +20832,7 @@
         <v>32701.30572907997</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19865,7 +20865,7 @@
         <v>32701.30572907997</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19898,7 +20898,7 @@
         <v>32701.19562907997</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19931,7 +20931,7 @@
         <v>32701.19562907997</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19964,7 +20964,7 @@
         <v>32700.92032907997</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19997,7 +20997,7 @@
         <v>32624.30312907997</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20030,7 +21030,7 @@
         <v>32205.66082907997</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20063,7 +21063,7 @@
         <v>32317.65562907997</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20096,7 +21096,7 @@
         <v>32750.90803115997</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20228,7 +21228,7 @@
         <v>34227.29033251997</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20261,7 +21261,7 @@
         <v>33784.39303251997</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20294,7 +21294,7 @@
         <v>32107.16263251997</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20327,7 +21327,7 @@
         <v>32107.22263251997</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20360,7 +21360,7 @@
         <v>31794.75443251997</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20393,7 +21393,7 @@
         <v>31623.64893251997</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20426,7 +21426,7 @@
         <v>30746.84503251997</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20459,7 +21459,7 @@
         <v>30283.19833251997</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20492,7 +21492,7 @@
         <v>29800.91873251997</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20525,7 +21525,7 @@
         <v>29404.22993251997</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20558,7 +21558,7 @@
         <v>29154.95103251997</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20591,7 +21591,7 @@
         <v>28782.26553251997</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20624,7 +21624,7 @@
         <v>28782.26553251997</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20657,7 +21657,7 @@
         <v>28625.63973251997</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20690,7 +21690,7 @@
         <v>26891.69883251996</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20723,7 +21723,7 @@
         <v>27783.86243251996</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20756,7 +21756,7 @@
         <v>27784.04373251996</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20789,7 +21789,7 @@
         <v>28511.36933251996</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20822,7 +21822,7 @@
         <v>28511.36933251996</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20855,7 +21855,7 @@
         <v>29205.45733251996</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20888,7 +21888,7 @@
         <v>28370.97523251996</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20921,7 +21921,7 @@
         <v>28370.97523251996</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20954,7 +21954,7 @@
         <v>28110.27913251996</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20987,7 +21987,7 @@
         <v>27629.06762140996</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21020,7 +22020,7 @@
         <v>27914.94732140996</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21053,7 +22053,7 @@
         <v>27997.40592140997</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21086,7 +22086,7 @@
         <v>27960.17252140996</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21119,7 +22119,7 @@
         <v>28030.29112140997</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21152,7 +22152,7 @@
         <v>27991.47782140996</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21185,7 +22185,7 @@
         <v>27760.93572140997</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21218,7 +22218,7 @@
         <v>27795.73952140997</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21251,7 +22251,7 @@
         <v>27876.48472140997</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21350,7 +22350,7 @@
         <v>27817.67782140997</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21416,7 +22416,7 @@
         <v>27727.55462140997</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21482,7 +22482,7 @@
         <v>27727.55462140997</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21515,7 +22515,7 @@
         <v>27735.63532140997</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21548,7 +22548,7 @@
         <v>27734.32492140997</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21581,7 +22581,7 @@
         <v>27734.43492140997</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21614,7 +22614,7 @@
         <v>27697.37212140997</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21647,7 +22647,7 @@
         <v>27697.30932140997</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21680,7 +22680,7 @@
         <v>26913.95982140997</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21746,7 +22746,7 @@
         <v>26951.58666970997</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21779,7 +22779,7 @@
         <v>26951.58666970997</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21812,7 +22812,7 @@
         <v>27086.86146970997</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21845,7 +22845,7 @@
         <v>26810.77136970996</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21878,7 +22878,7 @@
         <v>26656.70266970996</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21911,7 +22911,7 @@
         <v>26774.60666970996</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21944,7 +22944,7 @@
         <v>26774.60666970996</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21977,7 +22977,7 @@
         <v>26774.99016970996</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22010,7 +23010,7 @@
         <v>28905.01586970996</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22043,7 +23043,7 @@
         <v>28001.01936970996</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22076,7 +23076,7 @@
         <v>28829.50626970996</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22109,7 +23109,7 @@
         <v>28033.53116970996</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22142,7 +23142,7 @@
         <v>28444.49556970996</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22208,7 +23208,7 @@
         <v>28547.57840673996</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22241,7 +23241,7 @@
         <v>28538.73910673996</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22439,7 +23439,7 @@
         <v>28888.65550673996</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22472,7 +23472,7 @@
         <v>28841.33520673996</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22571,7 +23571,7 @@
         <v>28801.86040673996</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22604,7 +23604,7 @@
         <v>28802.86040673996</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22637,7 +23637,7 @@
         <v>28732.88730673996</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22670,7 +23670,7 @@
         <v>28992.06510673996</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22703,7 +23703,7 @@
         <v>28797.60120673996</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22736,7 +23736,7 @@
         <v>28797.60120673996</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22769,7 +23769,7 @@
         <v>29013.31010673997</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22802,7 +23802,7 @@
         <v>29008.98010673996</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22868,7 +23868,7 @@
         <v>29704.75610673997</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22901,7 +23901,7 @@
         <v>29745.05610673996</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22934,7 +23934,7 @@
         <v>29597.15320673996</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22967,7 +23967,7 @@
         <v>29564.05320673997</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23000,7 +24000,7 @@
         <v>29895.88790673996</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23033,7 +24033,7 @@
         <v>29895.88790673996</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23066,7 +24066,7 @@
         <v>29562.91140673996</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23099,7 +24099,7 @@
         <v>29369.07690673996</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23132,7 +24132,7 @@
         <v>29557.82200673996</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23165,7 +24165,7 @@
         <v>29536.41589215996</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23198,7 +24198,7 @@
         <v>30035.16049215996</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23231,7 +24231,7 @@
         <v>30032.26419215996</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23264,7 +24264,7 @@
         <v>30032.26419215996</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23297,7 +24297,7 @@
         <v>29896.26359215996</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23330,7 +24330,7 @@
         <v>29889.29189215997</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23363,7 +24363,7 @@
         <v>29889.29189215997</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23396,7 +24396,7 @@
         <v>30043.87109215997</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23429,7 +24429,7 @@
         <v>30053.33779215997</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23462,7 +24462,7 @@
         <v>29917.29949215997</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23495,7 +24495,7 @@
         <v>29653.15559215997</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23528,7 +24528,7 @@
         <v>29485.05479215997</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23561,7 +24561,7 @@
         <v>29410.18979215997</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23594,7 +24594,7 @@
         <v>29403.35379215997</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23627,7 +24627,7 @@
         <v>29401.99379215997</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23660,7 +24660,7 @@
         <v>29261.01529215997</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23693,7 +24693,7 @@
         <v>29467.25429215997</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23726,7 +24726,7 @@
         <v>29467.25429215997</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23759,7 +24759,7 @@
         <v>30569.40009215997</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23792,7 +24792,7 @@
         <v>30284.11959215996</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23825,7 +24825,7 @@
         <v>30145.18219215997</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23858,7 +24858,7 @@
         <v>30161.16079215996</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23891,7 +24891,7 @@
         <v>30114.94179215996</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23924,7 +24924,7 @@
         <v>30515.38619215996</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23957,7 +24957,7 @@
         <v>30411.29829215997</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23990,7 +24990,7 @@
         <v>30343.18329215996</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24023,7 +25023,7 @@
         <v>30217.05049215996</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24056,7 +25056,7 @@
         <v>30387.31799215997</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24089,7 +25089,7 @@
         <v>29960.48299215997</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24122,7 +25122,7 @@
         <v>30346.20789215997</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24155,7 +25155,7 @@
         <v>30346.20789215997</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24188,7 +25188,7 @@
         <v>30136.10789215997</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24221,7 +25221,7 @@
         <v>30136.10789215997</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24254,7 +25254,7 @@
         <v>30170.48879215997</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24287,7 +25287,7 @@
         <v>30170.48879215997</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24320,7 +25320,7 @@
         <v>30170.48879215997</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24353,7 +25353,7 @@
         <v>30170.48879215997</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24386,7 +25386,7 @@
         <v>29992.48879215997</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24419,7 +25419,7 @@
         <v>29992.48879215997</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24452,7 +25452,7 @@
         <v>30113.39489215997</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24485,7 +25485,7 @@
         <v>30113.39489215997</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24518,7 +25518,7 @@
         <v>29921.29819215997</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24551,7 +25551,7 @@
         <v>30115.80379215997</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24584,7 +25584,7 @@
         <v>29863.00969215997</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24617,7 +25617,7 @@
         <v>29663.10979215997</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24650,7 +25650,7 @@
         <v>29663.10979215997</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24683,7 +25683,7 @@
         <v>30142.92979215997</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24716,7 +25716,7 @@
         <v>30673.23279215997</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24749,7 +25749,7 @@
         <v>33789.70389215997</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24782,7 +25782,7 @@
         <v>34416.89229215997</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24848,7 +25848,7 @@
         <v>34208.70839215997</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24947,7 +25947,7 @@
         <v>34932.95489215996</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24980,7 +25980,7 @@
         <v>35089.93559215996</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25013,7 +26013,7 @@
         <v>35885.66619215997</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25046,7 +26046,7 @@
         <v>35885.66619215997</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25112,7 +26112,7 @@
         <v>36556.80925903997</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25178,7 +26178,7 @@
         <v>38462.96825903997</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25211,7 +26211,7 @@
         <v>37198.91709885997</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25244,7 +26244,7 @@
         <v>37781.49183867996</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25277,7 +26277,7 @@
         <v>35887.69323867996</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25310,7 +26310,7 @@
         <v>36092.36563867996</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25343,7 +26343,7 @@
         <v>40066.32623206997</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25376,7 +26376,7 @@
         <v>41192.92091826996</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25409,7 +26409,7 @@
         <v>43353.10880164996</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25442,7 +26442,7 @@
         <v>43352.65548502997</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25475,7 +26475,7 @@
         <v>43352.65548502997</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25508,7 +26508,7 @@
         <v>43087.75548502996</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25574,7 +26574,7 @@
         <v>42651.76558502997</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25607,7 +26607,7 @@
         <v>41578.71578502997</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25640,7 +26640,7 @@
         <v>41284.84518502997</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25673,7 +26673,7 @@
         <v>41121.59378502997</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25706,7 +26706,7 @@
         <v>41121.59378502997</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25739,7 +26739,7 @@
         <v>41239.93105124997</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25772,7 +26772,7 @@
         <v>41592.24365124996</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25838,7 +26838,7 @@
         <v>41631.28705124996</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25904,7 +26904,7 @@
         <v>41632.87805124996</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25937,7 +26937,7 @@
         <v>41551.35155124996</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25970,7 +26970,7 @@
         <v>41591.13845124996</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26003,7 +27003,7 @@
         <v>41047.72515124996</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26663,7 +27663,7 @@
         <v>38798.15295124995</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26696,7 +27696,7 @@
         <v>38519.41355124996</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26729,7 +27729,7 @@
         <v>39993.37898570995</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26861,7 +27861,7 @@
         <v>39068.91101010996</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26927,7 +27927,7 @@
         <v>38388.64591010995</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26993,7 +27993,7 @@
         <v>34745.24931010995</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27026,7 +28026,7 @@
         <v>35801.59941010996</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27356,7 +28356,7 @@
         <v>34945.19886609996</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27389,7 +28389,7 @@
         <v>35474.32777655996</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27422,7 +28422,7 @@
         <v>35245.47077655995</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27455,7 +28455,7 @@
         <v>34300.53227655996</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27488,7 +28488,7 @@
         <v>34535.23447655996</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27521,7 +28521,7 @@
         <v>34535.23447655996</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27554,7 +28554,7 @@
         <v>31116.92079305996</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27587,7 +28587,7 @@
         <v>30621.51197655996</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27620,7 +28620,7 @@
         <v>30621.51197655996</v>
       </c>
       <c r="H775" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27653,7 +28653,7 @@
         <v>30824.80907655996</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27686,7 +28686,7 @@
         <v>30794.88537655996</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27950,7 +28950,7 @@
         <v>31731.50719881996</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27983,7 +28983,7 @@
         <v>31623.98319881996</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28049,7 +29049,7 @@
         <v>31494.75089881996</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28082,7 +29082,7 @@
         <v>31511.25129881996</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28115,7 +29115,7 @@
         <v>31802.81379881996</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28181,7 +29181,7 @@
         <v>31864.36999881996</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28214,7 +29214,7 @@
         <v>32710.28159881996</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28247,7 +29247,7 @@
         <v>35297.85599881996</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28280,7 +29280,7 @@
         <v>35005.19619881995</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28313,7 +29313,7 @@
         <v>34221.79009881995</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28346,7 +29346,7 @@
         <v>34571.97979881996</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28379,7 +29379,7 @@
         <v>34571.97979881996</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28412,7 +29412,7 @@
         <v>34315.71699881996</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28445,7 +29445,7 @@
         <v>34127.98599881996</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28478,7 +29478,7 @@
         <v>34134.22249881996</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28511,7 +29511,7 @@
         <v>34372.62677151996</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28643,7 +29643,7 @@
         <v>34634.85177151996</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28742,7 +29742,7 @@
         <v>34808.32097151996</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -28775,7 +29775,7 @@
         <v>37237.54397151995</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28808,7 +29808,7 @@
         <v>36650.73897151995</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -28841,7 +29841,7 @@
         <v>36650.73897151995</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28874,7 +29874,7 @@
         <v>36875.35197151995</v>
       </c>
       <c r="H813" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28907,7 +29907,7 @@
         <v>36517.34657151995</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28940,7 +29940,7 @@
         <v>37076.49977151995</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28973,7 +29973,7 @@
         <v>37959.17047151995</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29006,7 +30006,7 @@
         <v>37896.15187151995</v>
       </c>
       <c r="H817" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -29039,7 +30039,7 @@
         <v>37896.15187151995</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -29072,7 +30072,7 @@
         <v>37616.29467151995</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29105,7 +30105,7 @@
         <v>37616.29467151995</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29138,7 +30138,7 @@
         <v>37699.07307151995</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29149,6 +30149,6 @@
       <c r="M821" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest BTG.xlsx
+++ b/BackTest/2020-01-15 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1751,11 +1751,9 @@
         <v>1336.97502527</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>7710</v>
       </c>
@@ -1792,11 +1790,9 @@
         <v>1334.64502527</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>7710</v>
       </c>
@@ -1833,11 +1829,9 @@
         <v>1376.84602527</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>7710</v>
       </c>
@@ -1915,11 +1909,9 @@
         <v>1889.80338451</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>7835</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>7710</v>
       </c>
@@ -1956,11 +1948,9 @@
         <v>2803.09778451</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>7850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>7710</v>
       </c>
@@ -1997,11 +1987,9 @@
         <v>2842.69498451</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>7710</v>
       </c>
@@ -2038,11 +2026,9 @@
         <v>2917.27698451</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>7925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>7710</v>
       </c>
@@ -2079,11 +2065,9 @@
         <v>2867.14698451</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>7710</v>
       </c>
@@ -2120,11 +2104,9 @@
         <v>2469.74688451</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>7710</v>
       </c>
@@ -2161,11 +2143,9 @@
         <v>2494.74688451</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>7830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>7710</v>
       </c>
@@ -2202,11 +2182,9 @@
         <v>2494.74688451</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>7890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>7710</v>
       </c>
@@ -2243,11 +2221,9 @@
         <v>2494.85978451</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>7710</v>
       </c>
@@ -2284,11 +2260,9 @@
         <v>2619.24138451</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>7895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>7710</v>
       </c>
@@ -2325,11 +2299,9 @@
         <v>3317.095284510001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>7900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>7710</v>
       </c>
@@ -2366,11 +2338,9 @@
         <v>3239.963184510001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>7710</v>
       </c>
@@ -2407,11 +2377,9 @@
         <v>3237.963184510001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>7920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>7710</v>
       </c>
@@ -2448,11 +2416,9 @@
         <v>3265.632484510001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>7865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>7710</v>
       </c>
@@ -2489,11 +2455,9 @@
         <v>2949.871384510001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>7910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>7710</v>
       </c>
@@ -2530,11 +2494,9 @@
         <v>2949.941384510001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>7870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>7710</v>
       </c>
@@ -2571,11 +2533,9 @@
         <v>2908.503384510001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>7900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>7710</v>
       </c>
@@ -2612,11 +2572,9 @@
         <v>2935.081184510001</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>7870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>7710</v>
       </c>
@@ -2653,11 +2611,9 @@
         <v>2889.081184510001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>7880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>7710</v>
       </c>
@@ -2694,11 +2650,9 @@
         <v>3102.55458451</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>7870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>7710</v>
       </c>
@@ -2735,11 +2689,9 @@
         <v>3476.41788451</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>7890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>7710</v>
       </c>
@@ -2776,11 +2728,9 @@
         <v>3821.75258451</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>7930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>7710</v>
       </c>
@@ -2817,11 +2767,9 @@
         <v>3824.83258451</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>7935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>7710</v>
       </c>
@@ -2858,11 +2806,9 @@
         <v>4267.54398451</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>7945</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>7710</v>
       </c>
@@ -2899,11 +2845,9 @@
         <v>4621.51488451</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>7980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>7710</v>
       </c>
@@ -2940,11 +2884,9 @@
         <v>4510.47558451</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>8000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>7710</v>
       </c>
@@ -2981,11 +2923,9 @@
         <v>4768.602184509999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>7980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>7710</v>
       </c>
@@ -3022,11 +2962,9 @@
         <v>4932.040484509999</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>7985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>7710</v>
       </c>
@@ -3063,11 +3001,9 @@
         <v>5982.894684509999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>7710</v>
       </c>
@@ -3104,11 +3040,9 @@
         <v>6310.866184509999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>8035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>7710</v>
       </c>
@@ -3145,11 +3079,9 @@
         <v>5931.949484509999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>8090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>7710</v>
       </c>
@@ -3186,11 +3118,9 @@
         <v>4551.399384509999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>8055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>7710</v>
       </c>
@@ -3227,7 +3157,7 @@
         <v>4706.913584509999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
@@ -3235,11 +3165,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>1.048177691309987</v>
       </c>
       <c r="M70" t="inlineStr"/>
     </row>
@@ -3269,14 +3199,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3305,17 +3229,11 @@
         <v>6421.230284509998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3344,17 +3262,11 @@
         <v>6383.367513139999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3383,17 +3295,11 @@
         <v>6383.367513139999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3422,17 +3328,11 @@
         <v>6356.260113139999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3461,17 +3361,11 @@
         <v>6586.425513139999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3500,17 +3394,11 @@
         <v>5782.711613139999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3539,17 +3427,11 @@
         <v>6437.464413139999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3578,17 +3460,11 @@
         <v>5443.945512839999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3617,17 +3493,11 @@
         <v>5568.901312839998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3656,17 +3526,11 @@
         <v>5448.611212839998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3695,17 +3559,11 @@
         <v>5137.754212839998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3737,14 +3595,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3776,14 +3628,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3815,14 +3661,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3854,14 +3694,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3893,14 +3727,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3932,14 +3760,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3971,14 +3793,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -4010,14 +3826,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4049,14 +3859,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4088,14 +3892,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4127,14 +3925,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4163,17 +3955,11 @@
         <v>2683.653512839999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4202,17 +3988,11 @@
         <v>2283.571312839999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4241,17 +4021,11 @@
         <v>2283.571312839999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4283,14 +4057,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4322,14 +4090,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4361,14 +4123,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4397,17 +4153,11 @@
         <v>2814.886512839999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4436,17 +4186,11 @@
         <v>3243.123712839999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4475,17 +4219,11 @@
         <v>3459.450612839999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4514,17 +4252,11 @@
         <v>3437.083512839999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4553,17 +4285,11 @@
         <v>3420.691612839999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4592,17 +4318,11 @@
         <v>3420.691612839999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4631,17 +4351,11 @@
         <v>3297.012612839999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4670,17 +4384,11 @@
         <v>3301.957612839999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4712,14 +4420,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4748,17 +4450,11 @@
         <v>3526.397412839999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4787,17 +4483,11 @@
         <v>3309.717412839999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4826,17 +4516,11 @@
         <v>3948.951912839999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4865,17 +4549,11 @@
         <v>4378.455223759999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4904,17 +4582,11 @@
         <v>4180.536023759999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4943,17 +4615,11 @@
         <v>3221.869006049999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4982,17 +4648,11 @@
         <v>3801.579006049999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5021,17 +4681,11 @@
         <v>3682.144606049999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5063,14 +4717,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5102,14 +4750,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5141,14 +4783,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5180,14 +4816,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5219,14 +4849,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5258,14 +4882,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5297,14 +4915,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5336,14 +4948,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5372,19 +4978,11 @@
         <v>2945.686606049998</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>8150</v>
-      </c>
-      <c r="J125" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5416,14 +5014,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5455,14 +5047,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5494,14 +5080,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5533,14 +5113,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5572,14 +5146,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5611,14 +5179,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5650,14 +5212,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5689,14 +5245,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5728,14 +5278,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5767,14 +5311,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5803,17 +5341,11 @@
         <v>3446.600806049998</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5842,17 +5374,11 @@
         <v>3446.680006049998</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5881,17 +5407,11 @@
         <v>3533.503406049998</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5920,17 +5440,11 @@
         <v>3403.347606049998</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5959,17 +5473,11 @@
         <v>3403.347606049998</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5998,17 +5506,11 @@
         <v>3395.337606049998</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6040,14 +5542,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6076,17 +5572,11 @@
         <v>3517.370606049998</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6115,17 +5605,11 @@
         <v>3163.867906049998</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6154,17 +5638,11 @@
         <v>3138.097806049998</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6196,14 +5674,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6232,17 +5704,11 @@
         <v>3138.097806049998</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6274,14 +5740,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6313,14 +5773,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6352,14 +5806,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6388,19 +5836,11 @@
         <v>2937.899306049997</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>8170</v>
-      </c>
-      <c r="J151" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6429,19 +5869,11 @@
         <v>2868.916206049998</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>8230</v>
-      </c>
-      <c r="J152" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6470,19 +5902,11 @@
         <v>2328.709406049998</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>8200</v>
-      </c>
-      <c r="J153" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6511,19 +5935,11 @@
         <v>2368.781306049998</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>8120</v>
-      </c>
-      <c r="J154" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6552,19 +5968,11 @@
         <v>2497.787106049997</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>8170</v>
-      </c>
-      <c r="J155" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6593,19 +6001,11 @@
         <v>2497.787106049997</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>8180</v>
-      </c>
-      <c r="J156" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6634,19 +6034,11 @@
         <v>2605.143106049997</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>8180</v>
-      </c>
-      <c r="J157" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6675,19 +6067,11 @@
         <v>2713.389106049997</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>8200</v>
-      </c>
-      <c r="J158" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6716,19 +6100,11 @@
         <v>2648.972906049997</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>8205</v>
-      </c>
-      <c r="J159" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6760,14 +6136,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6796,19 +6166,11 @@
         <v>1296.357106049997</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>8175</v>
-      </c>
-      <c r="J161" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6840,14 +6202,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6879,14 +6235,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6915,19 +6265,11 @@
         <v>1250.485506049997</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>8130</v>
-      </c>
-      <c r="J164" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6956,19 +6298,11 @@
         <v>270.2728060499971</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>8130</v>
-      </c>
-      <c r="J165" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -7000,14 +6334,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7039,14 +6367,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7078,14 +6400,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7114,19 +6430,11 @@
         <v>-318.1610939500029</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>8110</v>
-      </c>
-      <c r="J169" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7155,19 +6463,11 @@
         <v>-318.1610939500029</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>8050</v>
-      </c>
-      <c r="J170" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7196,19 +6496,11 @@
         <v>-405.2713939500028</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>8050</v>
-      </c>
-      <c r="J171" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7237,19 +6529,11 @@
         <v>-387.4610939500029</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>7990</v>
-      </c>
-      <c r="J172" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7278,19 +6562,11 @@
         <v>-384.4610939500029</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>7995</v>
-      </c>
-      <c r="J173" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7319,19 +6595,11 @@
         <v>-238.5132939500029</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>8070</v>
-      </c>
-      <c r="J174" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7360,19 +6628,11 @@
         <v>-98.45569395000285</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>8075</v>
-      </c>
-      <c r="J175" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7401,19 +6661,11 @@
         <v>-108.4556939500029</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>8150</v>
-      </c>
-      <c r="J176" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7442,19 +6694,11 @@
         <v>-118.4556939500029</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>8145</v>
-      </c>
-      <c r="J177" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7483,19 +6727,11 @@
         <v>-133.4405939500029</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>8110</v>
-      </c>
-      <c r="J178" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7524,19 +6760,11 @@
         <v>-60.47159395000287</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>8080</v>
-      </c>
-      <c r="J179" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7565,19 +6793,11 @@
         <v>-59.42709395000287</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>8100</v>
-      </c>
-      <c r="J180" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7606,19 +6826,11 @@
         <v>-50.71279395000287</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>8105</v>
-      </c>
-      <c r="J181" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7647,19 +6859,11 @@
         <v>22.28720604999713</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>8110</v>
-      </c>
-      <c r="J182" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7688,19 +6892,11 @@
         <v>-35.00619395000287</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>8135</v>
-      </c>
-      <c r="J183" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7729,19 +6925,11 @@
         <v>156.4488060499971</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>8115</v>
-      </c>
-      <c r="J184" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7773,14 +6961,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7812,14 +6994,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7851,14 +7027,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7890,14 +7060,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7929,14 +7093,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7968,14 +7126,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -8007,14 +7159,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8046,14 +7192,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8085,14 +7225,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8124,14 +7258,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8163,14 +7291,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8202,14 +7324,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8241,14 +7357,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8277,19 +7387,11 @@
         <v>34.88480604999713</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>8100</v>
-      </c>
-      <c r="J198" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8321,14 +7423,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8360,14 +7456,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8399,14 +7489,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8438,14 +7522,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8477,14 +7555,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8516,14 +7588,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8555,14 +7621,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8594,14 +7654,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8633,14 +7687,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8672,14 +7720,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8711,14 +7753,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8747,19 +7783,11 @@
         <v>67.77940604999714</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>8160</v>
-      </c>
-      <c r="J210" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8788,19 +7816,11 @@
         <v>152.2695513599971</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>8105</v>
-      </c>
-      <c r="J211" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8832,14 +7852,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8868,19 +7882,11 @@
         <v>125.0002513599971</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>8095</v>
-      </c>
-      <c r="J213" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8909,19 +7915,11 @@
         <v>192.0327513599971</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>8170</v>
-      </c>
-      <c r="J214" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8953,14 +7951,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8992,14 +7984,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -9031,14 +8017,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9070,14 +8050,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9109,14 +8083,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9148,14 +8116,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9187,14 +8149,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9226,14 +8182,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9262,17 +8212,11 @@
         <v>1474.943096739997</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9301,17 +8245,11 @@
         <v>2083.129196739997</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9340,17 +8278,11 @@
         <v>2078.129196739997</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9379,17 +8311,11 @@
         <v>1812.112696739997</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9418,17 +8344,11 @@
         <v>1902.112696739997</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9457,17 +8377,11 @@
         <v>1963.794944929997</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9496,17 +8410,11 @@
         <v>1948.794944929997</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9535,17 +8443,11 @@
         <v>2000.560644929997</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9574,17 +8476,11 @@
         <v>1920.233344929997</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9613,17 +8509,11 @@
         <v>1921.233344929997</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9652,17 +8542,11 @@
         <v>1808.233344929997</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9691,17 +8575,11 @@
         <v>1645.027844929997</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9730,17 +8608,11 @@
         <v>1742.219744929997</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9772,14 +8644,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9811,14 +8677,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9847,17 +8707,11 @@
         <v>1191.235544929997</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9886,17 +8740,11 @@
         <v>1191.876044929997</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9925,17 +8773,11 @@
         <v>1480.459744929997</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9964,17 +8806,11 @@
         <v>1480.459744929997</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -10003,17 +8839,11 @@
         <v>1598.504541309997</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -10042,17 +8872,11 @@
         <v>1598.504541309997</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10081,17 +8905,11 @@
         <v>2774.657341309997</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10120,17 +8938,11 @@
         <v>3024.770241309997</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10159,17 +8971,11 @@
         <v>3024.770241309997</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10198,17 +9004,11 @@
         <v>3024.900241309997</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10237,17 +9037,11 @@
         <v>3149.535141309997</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10276,17 +9070,11 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10315,17 +9103,11 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10354,17 +9136,11 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10393,17 +9169,11 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10432,17 +9202,11 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10471,17 +9235,11 @@
         <v>3300.742241309998</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10510,17 +9268,11 @@
         <v>3489.919541309997</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10549,17 +9301,11 @@
         <v>3547.066541309997</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10588,17 +9334,11 @@
         <v>4126.435841309997</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10627,17 +9367,11 @@
         <v>4126.435841309997</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10666,17 +9400,11 @@
         <v>5246.575441309997</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10705,17 +9433,11 @@
         <v>5772.360641309997</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10744,17 +9466,11 @@
         <v>6152.524141309997</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10783,17 +9499,11 @@
         <v>7022.968541309997</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10822,17 +9532,11 @@
         <v>7022.968541309997</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10861,17 +9565,11 @@
         <v>7675.526241309997</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10900,17 +9598,11 @@
         <v>6604.965041309997</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10939,17 +9631,11 @@
         <v>6604.965041309997</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10978,17 +9664,11 @@
         <v>6604.965041309997</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -11017,17 +9697,11 @@
         <v>6604.965041309997</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11056,17 +9730,11 @@
         <v>6598.144541309997</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11095,17 +9763,11 @@
         <v>6777.825641309997</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11134,17 +9796,11 @@
         <v>7251.961841309997</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11173,17 +9829,11 @@
         <v>9609.469649899997</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11212,17 +9862,11 @@
         <v>12509.17599728</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11251,17 +9895,11 @@
         <v>13724.0159499</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11290,17 +9928,11 @@
         <v>13152.1127499</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11329,17 +9961,11 @@
         <v>11691.74584989999</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11368,17 +9994,11 @@
         <v>10513.1634499</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11407,17 +10027,11 @@
         <v>10410.2409499</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11446,17 +10060,11 @@
         <v>11525.3039499</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11485,17 +10093,11 @@
         <v>12107.5211499</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11524,17 +10126,11 @@
         <v>12013.35591596</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11563,17 +10159,11 @@
         <v>11911.11141595999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11602,17 +10192,11 @@
         <v>11911.11141595999</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11641,17 +10225,11 @@
         <v>12005.94934968999</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11680,17 +10258,11 @@
         <v>12003.40364968999</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11719,17 +10291,11 @@
         <v>12086.29434968999</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11758,17 +10324,11 @@
         <v>12086.29434968999</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11797,17 +10357,11 @@
         <v>13330.90684968999</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11839,14 +10393,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11878,14 +10426,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11917,14 +10459,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11956,14 +10492,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11995,14 +10525,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -12034,14 +10558,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12073,14 +10591,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12112,14 +10624,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12148,17 +10654,11 @@
         <v>18214.05584640999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12187,17 +10687,11 @@
         <v>18214.05584640999</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12226,17 +10720,11 @@
         <v>17843.98114640999</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12265,17 +10753,11 @@
         <v>17843.98114640999</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12304,17 +10786,11 @@
         <v>15869.72014640999</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12343,17 +10819,11 @@
         <v>15985.08024640999</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12382,17 +10852,11 @@
         <v>16032.21712180999</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12421,17 +10885,11 @@
         <v>16017.60762180999</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12460,17 +10918,11 @@
         <v>16017.60762180999</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12499,17 +10951,11 @@
         <v>16017.60762180999</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12538,17 +10984,11 @@
         <v>16088.93252180999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12577,17 +11017,11 @@
         <v>15988.93252180999</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12616,17 +11050,11 @@
         <v>15614.41672180999</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12655,17 +11083,11 @@
         <v>15311.36312180999</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12697,14 +11119,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12733,17 +11149,11 @@
         <v>15320.65570772999</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12775,14 +11185,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12811,17 +11215,11 @@
         <v>15098.50210772999</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12850,17 +11248,11 @@
         <v>15561.35810772999</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12889,17 +11281,11 @@
         <v>16642.87107917999</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12928,17 +11314,11 @@
         <v>16643.28867917999</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12967,17 +11347,11 @@
         <v>16643.28867917999</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -13006,17 +11380,11 @@
         <v>16543.28867917999</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -13045,17 +11413,11 @@
         <v>16483.81897917999</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13084,17 +11446,11 @@
         <v>16628.17320772999</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13123,17 +11479,11 @@
         <v>16481.33620772999</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13162,17 +11512,11 @@
         <v>16282.29140772999</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13201,17 +11545,11 @@
         <v>15777.86680772999</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13240,17 +11578,11 @@
         <v>18181.26570772999</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13279,17 +11611,11 @@
         <v>18003.95690772999</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13321,14 +11647,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13360,14 +11680,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13396,17 +11710,11 @@
         <v>17948.73650772999</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13438,14 +11746,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13474,17 +11776,11 @@
         <v>17931.51441272999</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13513,17 +11809,11 @@
         <v>17780.46931272999</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13552,17 +11842,11 @@
         <v>17623.03561272999</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13591,17 +11875,11 @@
         <v>17623.03561272999</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13630,17 +11908,11 @@
         <v>17588.44701272999</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13669,17 +11941,11 @@
         <v>17368.11941272999</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13708,17 +11974,11 @@
         <v>17368.11941272999</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13747,17 +12007,11 @@
         <v>17414.51067091999</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13786,17 +12040,11 @@
         <v>17411.46417091999</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13825,17 +12073,11 @@
         <v>17596.04211272999</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13867,14 +12109,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13906,14 +12142,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13945,14 +12175,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13984,14 +12208,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -14020,17 +12238,11 @@
         <v>17521.35941272999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -14062,14 +12274,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14101,14 +12307,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14140,14 +12340,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14179,14 +12373,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14218,14 +12406,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14257,14 +12439,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14296,14 +12472,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14335,14 +12505,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14374,14 +12538,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14413,14 +12571,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14452,14 +12604,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14491,14 +12637,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14530,14 +12670,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14569,14 +12703,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14608,14 +12736,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14647,14 +12769,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14686,14 +12802,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14725,14 +12835,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14764,14 +12868,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14803,14 +12901,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14842,14 +12934,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14881,14 +12967,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14920,14 +13000,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14959,14 +13033,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14998,14 +13066,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -15037,14 +13099,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -15076,14 +13132,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15115,14 +13165,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15154,14 +13198,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15193,14 +13231,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15232,14 +13264,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15271,14 +13297,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15310,14 +13330,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15346,17 +13360,11 @@
         <v>24150.04059090998</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15388,14 +13396,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15424,17 +13426,11 @@
         <v>23812.44279090998</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15466,14 +13462,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15505,14 +13495,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15544,14 +13528,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15583,14 +13561,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15622,14 +13594,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15661,14 +13627,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15700,14 +13660,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15739,14 +13693,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15778,14 +13726,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15817,14 +13759,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15856,14 +13792,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15895,14 +13825,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15934,14 +13858,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15973,14 +13891,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -16012,14 +13924,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -16051,14 +13957,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -16090,14 +13990,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16129,14 +14023,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16168,14 +14056,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16207,14 +14089,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16246,14 +14122,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16285,14 +14155,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16324,14 +14188,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16363,14 +14221,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16402,14 +14254,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16441,14 +14287,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16480,14 +14320,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16519,14 +14353,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16558,14 +14386,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16597,14 +14419,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16633,23 +14449,15 @@
         <v>34876.50467997997</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>7710</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
-        <v>1.194740596627756</v>
-      </c>
-      <c r="M412" t="n">
-        <v>1.001298701298701</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -16905,7 +14713,7 @@
         <v>35183.08113799997</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16971,7 +14779,7 @@
         <v>34985.15503799998</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -17037,7 +14845,7 @@
         <v>34840.10963799997</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -17070,7 +14878,7 @@
         <v>35023.32593799997</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -17103,7 +14911,7 @@
         <v>35023.32593799997</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -17136,7 +14944,7 @@
         <v>35023.32593799997</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -17169,7 +14977,7 @@
         <v>35320.18113799997</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -17202,7 +15010,7 @@
         <v>35320.18113799997</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -17235,7 +15043,7 @@
         <v>36042.89923799997</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -17268,7 +15076,7 @@
         <v>36527.21803182997</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -17301,7 +15109,7 @@
         <v>36036.14263182997</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -17367,7 +15175,7 @@
         <v>36810.39236067997</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -17400,7 +15208,7 @@
         <v>38599.66826067997</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -17433,7 +15241,7 @@
         <v>38765.29566067997</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17466,7 +15274,7 @@
         <v>38181.80663939997</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17499,7 +15307,7 @@
         <v>38633.13871811997</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17565,7 +15373,7 @@
         <v>35136.58331811996</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17598,7 +15406,7 @@
         <v>35587.33825409997</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17631,7 +15439,7 @@
         <v>35587.33825409997</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17664,7 +15472,7 @@
         <v>35315.80945409997</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17730,7 +15538,7 @@
         <v>35022.14435409997</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17763,7 +15571,7 @@
         <v>34124.24463281997</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17796,7 +15604,7 @@
         <v>33470.84213281997</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17829,7 +15637,7 @@
         <v>32696.59546539997</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17862,7 +15670,7 @@
         <v>29591.53896539997</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17895,7 +15703,7 @@
         <v>29106.11646539997</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17928,7 +15736,7 @@
         <v>29221.56546539997</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17961,7 +15769,7 @@
         <v>29391.84936539997</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17994,7 +15802,7 @@
         <v>29410.08046539997</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -18027,7 +15835,7 @@
         <v>28515.03076539997</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -18060,7 +15868,7 @@
         <v>28903.18676539997</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -18093,7 +15901,7 @@
         <v>28740.72206539997</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -18126,7 +15934,7 @@
         <v>28752.58156539997</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -18159,7 +15967,7 @@
         <v>28396.69896539997</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -18192,7 +16000,7 @@
         <v>29392.72646539997</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -18225,7 +16033,7 @@
         <v>30288.40656539997</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -18258,7 +16066,7 @@
         <v>30134.83646539997</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18291,7 +16099,7 @@
         <v>30491.89786539997</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18324,7 +16132,7 @@
         <v>30687.96016539997</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18885,7 +16693,7 @@
         <v>31764.71815108996</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18918,7 +16726,7 @@
         <v>32031.07029004996</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18951,7 +16759,7 @@
         <v>32538.93509004996</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18984,7 +16792,7 @@
         <v>32927.35699004996</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -19017,7 +16825,7 @@
         <v>33601.33959004996</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -19050,7 +16858,7 @@
         <v>33357.83849004996</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -19149,7 +16957,7 @@
         <v>33235.37629004996</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -19182,7 +16990,7 @@
         <v>33977.29599004996</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -19215,7 +17023,7 @@
         <v>33876.29599004996</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19248,7 +17056,7 @@
         <v>34141.73379004996</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19281,7 +17089,7 @@
         <v>33849.37849004995</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19314,7 +17122,7 @@
         <v>33311.95539004995</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19347,7 +17155,7 @@
         <v>33838.22489004995</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19380,7 +17188,7 @@
         <v>34447.99559004996</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19413,7 +17221,7 @@
         <v>34447.79729004996</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19446,7 +17254,7 @@
         <v>34324.48639004996</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19479,7 +17287,7 @@
         <v>34324.48639004996</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19512,7 +17320,7 @@
         <v>34504.98639004996</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19545,7 +17353,7 @@
         <v>34383.96339004996</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19578,7 +17386,7 @@
         <v>34127.42339004996</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19611,7 +17419,7 @@
         <v>32797.35369004996</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19644,7 +17452,7 @@
         <v>32737.34869004996</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19677,7 +17485,7 @@
         <v>33032.14519004996</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19710,7 +17518,7 @@
         <v>32348.60789004996</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19743,7 +17551,7 @@
         <v>31866.94529004996</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19776,7 +17584,7 @@
         <v>31971.37959004996</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19809,7 +17617,7 @@
         <v>31974.39449004996</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19842,7 +17650,7 @@
         <v>31890.68419004996</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19875,7 +17683,7 @@
         <v>31872.64500560996</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19908,7 +17716,7 @@
         <v>31872.64500560996</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19941,7 +17749,7 @@
         <v>31872.64500560996</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19974,7 +17782,7 @@
         <v>31975.58690560996</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -20007,7 +17815,7 @@
         <v>32003.38222116996</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -20040,7 +17848,7 @@
         <v>32139.77432116996</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -20073,7 +17881,7 @@
         <v>32133.19892116996</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20106,7 +17914,7 @@
         <v>32230.68872116996</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -20139,7 +17947,7 @@
         <v>32419.25932116996</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -20172,7 +17980,7 @@
         <v>32308.72912116996</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20205,7 +18013,7 @@
         <v>32282.23022116996</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20238,7 +18046,7 @@
         <v>31543.76422116996</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20271,7 +18079,7 @@
         <v>33355.64112797996</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20304,7 +18112,7 @@
         <v>33354.15052797996</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20337,7 +18145,7 @@
         <v>32977.53212797996</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20370,7 +18178,7 @@
         <v>34391.66252797996</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20403,7 +18211,7 @@
         <v>32726.86732907996</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20436,7 +18244,7 @@
         <v>32576.63202907996</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20469,7 +18277,7 @@
         <v>32387.63042907996</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20502,7 +18310,7 @@
         <v>32588.15512907997</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20535,7 +18343,7 @@
         <v>32581.22462907997</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20568,7 +18376,7 @@
         <v>32563.61592907997</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20601,7 +18409,7 @@
         <v>32563.61592907997</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20634,7 +18442,7 @@
         <v>32647.40422907997</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20667,7 +18475,7 @@
         <v>32647.40422907997</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20700,7 +18508,7 @@
         <v>32647.40422907997</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20733,7 +18541,7 @@
         <v>32918.94432907997</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20766,7 +18574,7 @@
         <v>33076.51822907997</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20799,7 +18607,7 @@
         <v>33054.83822907997</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20898,7 +18706,7 @@
         <v>32701.19562907997</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20964,7 +18772,7 @@
         <v>32700.92032907997</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -21030,7 +18838,7 @@
         <v>32205.66082907997</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -21096,7 +18904,7 @@
         <v>32750.90803115997</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -21228,7 +19036,7 @@
         <v>34227.29033251997</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21261,7 +19069,7 @@
         <v>33784.39303251997</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21294,7 +19102,7 @@
         <v>32107.16263251997</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21327,7 +19135,7 @@
         <v>32107.22263251997</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21360,7 +19168,7 @@
         <v>31794.75443251997</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21393,7 +19201,7 @@
         <v>31623.64893251997</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21459,7 +19267,7 @@
         <v>30283.19833251997</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21492,7 +19300,7 @@
         <v>29800.91873251997</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21525,7 +19333,7 @@
         <v>29404.22993251997</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21558,7 +19366,7 @@
         <v>29154.95103251997</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21591,7 +19399,7 @@
         <v>28782.26553251997</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21624,7 +19432,7 @@
         <v>28782.26553251997</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21657,7 +19465,7 @@
         <v>28625.63973251997</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21690,7 +19498,7 @@
         <v>26891.69883251996</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21723,7 +19531,7 @@
         <v>27783.86243251996</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21756,7 +19564,7 @@
         <v>27784.04373251996</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21789,7 +19597,7 @@
         <v>28511.36933251996</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21822,7 +19630,7 @@
         <v>28511.36933251996</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21855,7 +19663,7 @@
         <v>29205.45733251996</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21888,7 +19696,7 @@
         <v>28370.97523251996</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21921,7 +19729,7 @@
         <v>28370.97523251996</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21954,7 +19762,7 @@
         <v>28110.27913251996</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21987,7 +19795,7 @@
         <v>27629.06762140996</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22020,7 +19828,7 @@
         <v>27914.94732140996</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22053,7 +19861,7 @@
         <v>27997.40592140997</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22086,7 +19894,7 @@
         <v>27960.17252140996</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22119,7 +19927,7 @@
         <v>28030.29112140997</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22152,7 +19960,7 @@
         <v>27991.47782140996</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22185,7 +19993,7 @@
         <v>27760.93572140997</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22218,7 +20026,7 @@
         <v>27795.73952140997</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22251,7 +20059,7 @@
         <v>27876.48472140997</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -23439,7 +21247,7 @@
         <v>28888.65550673996</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23472,7 +21280,7 @@
         <v>28841.33520673996</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23571,7 +21379,7 @@
         <v>28801.86040673996</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23604,7 +21412,7 @@
         <v>28802.86040673996</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23637,7 +21445,7 @@
         <v>28732.88730673996</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23670,7 +21478,7 @@
         <v>28992.06510673996</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23703,7 +21511,7 @@
         <v>28797.60120673996</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23736,7 +21544,7 @@
         <v>28797.60120673996</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23769,7 +21577,7 @@
         <v>29013.31010673997</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23802,7 +21610,7 @@
         <v>29008.98010673996</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23868,7 +21676,7 @@
         <v>29704.75610673997</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23901,7 +21709,7 @@
         <v>29745.05610673996</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23934,7 +21742,7 @@
         <v>29597.15320673996</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23967,7 +21775,7 @@
         <v>29564.05320673997</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24000,7 +21808,7 @@
         <v>29895.88790673996</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24033,7 +21841,7 @@
         <v>29895.88790673996</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -24066,7 +21874,7 @@
         <v>29562.91140673996</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24099,7 +21907,7 @@
         <v>29369.07690673996</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -24132,7 +21940,7 @@
         <v>29557.82200673996</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -24165,7 +21973,7 @@
         <v>29536.41589215996</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24198,7 +22006,7 @@
         <v>30035.16049215996</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24231,7 +22039,7 @@
         <v>30032.26419215996</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24264,7 +22072,7 @@
         <v>30032.26419215996</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24297,7 +22105,7 @@
         <v>29896.26359215996</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -24396,7 +22204,7 @@
         <v>30043.87109215997</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -24429,7 +22237,7 @@
         <v>30053.33779215997</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -24462,7 +22270,7 @@
         <v>29917.29949215997</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24495,7 +22303,7 @@
         <v>29653.15559215997</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -24528,7 +22336,7 @@
         <v>29485.05479215997</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -24561,7 +22369,7 @@
         <v>29410.18979215997</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24594,7 +22402,7 @@
         <v>29403.35379215997</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24627,7 +22435,7 @@
         <v>29401.99379215997</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24660,7 +22468,7 @@
         <v>29261.01529215997</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24693,7 +22501,7 @@
         <v>29467.25429215997</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24726,7 +22534,7 @@
         <v>29467.25429215997</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24759,7 +22567,7 @@
         <v>30569.40009215997</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24792,7 +22600,7 @@
         <v>30284.11959215996</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24825,7 +22633,7 @@
         <v>30145.18219215997</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -24858,7 +22666,7 @@
         <v>30161.16079215996</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24891,7 +22699,7 @@
         <v>30114.94179215996</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24924,7 +22732,7 @@
         <v>30515.38619215996</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24957,7 +22765,7 @@
         <v>30411.29829215997</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24990,7 +22798,7 @@
         <v>30343.18329215996</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25023,7 +22831,7 @@
         <v>30217.05049215996</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25056,7 +22864,7 @@
         <v>30387.31799215997</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25089,7 +22897,7 @@
         <v>29960.48299215997</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25122,7 +22930,7 @@
         <v>30346.20789215997</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25155,7 +22963,7 @@
         <v>30346.20789215997</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25188,7 +22996,7 @@
         <v>30136.10789215997</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -26409,7 +24217,7 @@
         <v>43353.10880164996</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26475,7 +24283,7 @@
         <v>43352.65548502997</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26607,7 +24415,7 @@
         <v>41578.71578502997</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26640,7 +24448,7 @@
         <v>41284.84518502997</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26673,7 +24481,7 @@
         <v>41121.59378502997</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26706,7 +24514,7 @@
         <v>41121.59378502997</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26739,7 +24547,7 @@
         <v>41239.93105124997</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26772,7 +24580,7 @@
         <v>41592.24365124996</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26838,7 +24646,7 @@
         <v>41631.28705124996</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26904,7 +24712,7 @@
         <v>41632.87805124996</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26937,7 +24745,7 @@
         <v>41551.35155124996</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26970,7 +24778,7 @@
         <v>41591.13845124996</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27003,7 +24811,7 @@
         <v>41047.72515124996</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27663,7 +25471,7 @@
         <v>38798.15295124995</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27696,7 +25504,7 @@
         <v>38519.41355124996</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27729,7 +25537,7 @@
         <v>39993.37898570995</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27927,7 +25735,7 @@
         <v>38388.64591010995</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -28356,7 +26164,7 @@
         <v>34945.19886609996</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -28389,7 +26197,7 @@
         <v>35474.32777655996</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -28422,7 +26230,7 @@
         <v>35245.47077655995</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28455,7 +26263,7 @@
         <v>34300.53227655996</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28488,7 +26296,7 @@
         <v>34535.23447655996</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28521,7 +26329,7 @@
         <v>34535.23447655996</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28554,7 +26362,7 @@
         <v>31116.92079305996</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28587,7 +26395,7 @@
         <v>30621.51197655996</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28620,7 +26428,7 @@
         <v>30621.51197655996</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28653,7 +26461,7 @@
         <v>30824.80907655996</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28686,7 +26494,7 @@
         <v>30794.88537655996</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28950,7 +26758,7 @@
         <v>31731.50719881996</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28983,7 +26791,7 @@
         <v>31623.98319881996</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -29049,7 +26857,7 @@
         <v>31494.75089881996</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -29082,7 +26890,7 @@
         <v>31511.25129881996</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -29115,7 +26923,7 @@
         <v>31802.81379881996</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -29181,7 +26989,7 @@
         <v>31864.36999881996</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -29214,7 +27022,7 @@
         <v>32710.28159881996</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -29247,7 +27055,7 @@
         <v>35297.85599881996</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -29280,7 +27088,7 @@
         <v>35005.19619881995</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -29313,7 +27121,7 @@
         <v>34221.79009881995</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -29346,7 +27154,7 @@
         <v>34571.97979881996</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -29379,7 +27187,7 @@
         <v>34571.97979881996</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29412,7 +27220,7 @@
         <v>34315.71699881996</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -29445,7 +27253,7 @@
         <v>34127.98599881996</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29478,7 +27286,7 @@
         <v>34134.22249881996</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -29511,7 +27319,7 @@
         <v>34372.62677151996</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29808,7 +27616,7 @@
         <v>36650.73897151995</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29841,7 +27649,7 @@
         <v>36650.73897151995</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29874,7 +27682,7 @@
         <v>36875.35197151995</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29940,7 +27748,7 @@
         <v>37076.49977151995</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29973,7 +27781,7 @@
         <v>37959.17047151995</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -30006,7 +27814,7 @@
         <v>37896.15187151995</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -30039,7 +27847,7 @@
         <v>37896.15187151995</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -30138,7 +27946,7 @@
         <v>37699.07307151995</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -30149,6 +27957,6 @@
       <c r="M821" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest BTG.xlsx
+++ b/BackTest/2020-01-15 BackTest BTG.xlsx
@@ -1751,9 +1751,11 @@
         <v>1336.97502527</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7850</v>
+      </c>
       <c r="J34" t="n">
         <v>7710</v>
       </c>
@@ -1790,9 +1792,11 @@
         <v>1334.64502527</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7850</v>
+      </c>
       <c r="J35" t="n">
         <v>7710</v>
       </c>
@@ -1829,9 +1833,11 @@
         <v>1376.84602527</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7800</v>
+      </c>
       <c r="J36" t="n">
         <v>7710</v>
       </c>
@@ -1909,9 +1915,11 @@
         <v>1889.80338451</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7835</v>
+      </c>
       <c r="J38" t="n">
         <v>7710</v>
       </c>
@@ -1948,9 +1956,11 @@
         <v>2803.09778451</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7850</v>
+      </c>
       <c r="J39" t="n">
         <v>7710</v>
       </c>
@@ -1987,9 +1997,11 @@
         <v>2842.69498451</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7920</v>
+      </c>
       <c r="J40" t="n">
         <v>7710</v>
       </c>
@@ -2026,9 +2038,11 @@
         <v>2917.27698451</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7925</v>
+      </c>
       <c r="J41" t="n">
         <v>7710</v>
       </c>
@@ -2065,9 +2079,11 @@
         <v>2867.14698451</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7930</v>
+      </c>
       <c r="J42" t="n">
         <v>7710</v>
       </c>
@@ -2104,9 +2120,11 @@
         <v>2469.74688451</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7900</v>
+      </c>
       <c r="J43" t="n">
         <v>7710</v>
       </c>
@@ -2182,9 +2200,11 @@
         <v>2494.74688451</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>7890</v>
+      </c>
       <c r="J45" t="n">
         <v>7710</v>
       </c>
@@ -2221,9 +2241,11 @@
         <v>2494.85978451</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7890</v>
+      </c>
       <c r="J46" t="n">
         <v>7710</v>
       </c>
@@ -2377,9 +2399,11 @@
         <v>3237.963184510001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>7920</v>
+      </c>
       <c r="J50" t="n">
         <v>7710</v>
       </c>
@@ -3157,7 +3181,7 @@
         <v>4706.913584509999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
@@ -3165,11 +3189,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.048177691309987</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
     </row>
@@ -3199,8 +3223,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3229,11 +3259,17 @@
         <v>6421.230284509998</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3262,11 +3298,17 @@
         <v>6383.367513139999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3295,11 +3337,17 @@
         <v>6383.367513139999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3328,11 +3376,17 @@
         <v>6356.260113139999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3361,11 +3415,17 @@
         <v>6586.425513139999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3394,11 +3454,17 @@
         <v>5782.711613139999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3427,11 +3493,17 @@
         <v>6437.464413139999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3460,11 +3532,17 @@
         <v>5443.945512839999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3493,11 +3571,17 @@
         <v>5568.901312839998</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3526,11 +3610,17 @@
         <v>5448.611212839998</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3559,11 +3649,17 @@
         <v>5137.754212839998</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3595,8 +3691,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3628,8 +3730,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3661,8 +3769,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3694,8 +3808,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3727,8 +3847,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3760,8 +3886,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3793,8 +3925,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3826,8 +3964,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3859,8 +4003,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3892,8 +4042,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3925,8 +4081,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3955,11 +4117,17 @@
         <v>2683.653512839999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3988,11 +4156,17 @@
         <v>2283.571312839999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4021,11 +4195,17 @@
         <v>2283.571312839999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4057,8 +4237,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4090,8 +4276,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4123,8 +4315,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4153,11 +4351,17 @@
         <v>2814.886512839999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4186,11 +4390,17 @@
         <v>3243.123712839999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4219,11 +4429,17 @@
         <v>3459.450612839999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4252,11 +4468,17 @@
         <v>3437.083512839999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4285,11 +4507,17 @@
         <v>3420.691612839999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4318,11 +4546,17 @@
         <v>3420.691612839999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4351,11 +4585,17 @@
         <v>3297.012612839999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4384,11 +4624,17 @@
         <v>3301.957612839999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4420,8 +4666,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4450,11 +4702,17 @@
         <v>3526.397412839999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4483,11 +4741,17 @@
         <v>3309.717412839999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4516,11 +4780,17 @@
         <v>3948.951912839999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4549,11 +4819,17 @@
         <v>4378.455223759999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4582,11 +4858,17 @@
         <v>4180.536023759999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4615,11 +4897,17 @@
         <v>3221.869006049999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4648,11 +4936,17 @@
         <v>3801.579006049999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4681,11 +4975,17 @@
         <v>3682.144606049999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4717,8 +5017,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4750,8 +5056,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4783,8 +5095,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4816,8 +5134,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4849,8 +5173,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4882,8 +5212,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4915,8 +5251,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4948,8 +5290,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4981,8 +5329,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5014,8 +5368,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5047,8 +5407,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5080,8 +5446,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5113,8 +5485,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5146,8 +5524,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5179,8 +5563,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5212,8 +5602,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5245,8 +5641,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5278,8 +5680,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5311,8 +5719,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5341,11 +5755,17 @@
         <v>3446.600806049998</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5374,11 +5794,17 @@
         <v>3446.680006049998</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5407,11 +5833,17 @@
         <v>3533.503406049998</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5440,11 +5872,17 @@
         <v>3403.347606049998</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5473,11 +5911,17 @@
         <v>3403.347606049998</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5506,11 +5950,17 @@
         <v>3395.337606049998</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5542,8 +5992,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5572,11 +6028,17 @@
         <v>3517.370606049998</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5605,11 +6067,17 @@
         <v>3163.867906049998</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5638,11 +6106,17 @@
         <v>3138.097806049998</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5674,8 +6148,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5704,11 +6184,17 @@
         <v>3138.097806049998</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5740,8 +6226,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5773,8 +6265,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5806,8 +6304,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5839,8 +6343,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5872,8 +6382,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5905,8 +6421,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5938,8 +6460,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5971,8 +6499,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6004,8 +6538,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6037,8 +6577,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6070,8 +6616,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6103,8 +6655,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6136,8 +6694,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6169,8 +6733,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6202,8 +6772,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6235,8 +6811,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6268,8 +6850,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6301,8 +6889,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6334,8 +6928,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6367,8 +6967,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6400,8 +7006,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6433,8 +7045,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6466,8 +7084,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6499,8 +7123,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6532,8 +7162,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6565,8 +7201,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6598,8 +7240,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6631,8 +7279,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6664,8 +7318,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6697,8 +7357,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6730,8 +7396,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6763,8 +7435,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6796,8 +7474,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6829,8 +7513,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6862,8 +7552,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6895,8 +7591,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6928,8 +7630,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6961,8 +7669,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6994,8 +7708,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7027,8 +7747,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7060,8 +7786,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7093,8 +7825,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7126,8 +7864,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7159,8 +7903,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7192,8 +7942,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7225,8 +7981,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7258,8 +8020,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7291,8 +8059,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7324,8 +8098,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7357,8 +8137,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7390,8 +8176,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7423,8 +8215,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7456,8 +8254,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7489,8 +8293,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7522,8 +8332,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7555,8 +8371,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7588,8 +8410,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7621,8 +8449,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7654,8 +8488,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7687,8 +8527,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7720,8 +8566,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7753,8 +8605,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7786,8 +8644,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7819,8 +8683,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7852,8 +8722,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7885,8 +8761,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7918,8 +8800,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7951,8 +8839,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7984,8 +8878,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8017,8 +8917,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8050,8 +8956,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8083,8 +8995,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8116,8 +9034,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8149,8 +9073,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8182,8 +9112,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8212,11 +9148,17 @@
         <v>1474.943096739997</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8245,11 +9187,17 @@
         <v>2083.129196739997</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8278,11 +9226,17 @@
         <v>2078.129196739997</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8311,11 +9265,17 @@
         <v>1812.112696739997</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8344,11 +9304,17 @@
         <v>1902.112696739997</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8377,11 +9343,17 @@
         <v>1963.794944929997</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8410,11 +9382,17 @@
         <v>1948.794944929997</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8443,11 +9421,17 @@
         <v>2000.560644929997</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8476,11 +9460,17 @@
         <v>1920.233344929997</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8509,11 +9499,17 @@
         <v>1921.233344929997</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8542,11 +9538,17 @@
         <v>1808.233344929997</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8575,11 +9577,17 @@
         <v>1645.027844929997</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8608,11 +9616,17 @@
         <v>1742.219744929997</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8644,8 +9658,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8677,8 +9697,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8707,11 +9733,17 @@
         <v>1191.235544929997</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8740,11 +9772,17 @@
         <v>1191.876044929997</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8773,11 +9811,17 @@
         <v>1480.459744929997</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8806,11 +9850,17 @@
         <v>1480.459744929997</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8839,11 +9889,17 @@
         <v>1598.504541309997</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8872,11 +9928,17 @@
         <v>1598.504541309997</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8905,11 +9967,17 @@
         <v>2774.657341309997</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8938,11 +10006,17 @@
         <v>3024.770241309997</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8971,11 +10045,17 @@
         <v>3024.770241309997</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9004,11 +10084,17 @@
         <v>3024.900241309997</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9037,11 +10123,17 @@
         <v>3149.535141309997</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9070,11 +10162,17 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9103,11 +10201,17 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9136,11 +10240,17 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9169,11 +10279,17 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9202,11 +10318,17 @@
         <v>3179.872641309998</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9235,11 +10357,17 @@
         <v>3300.742241309998</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9268,11 +10396,17 @@
         <v>3489.919541309997</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9301,11 +10435,17 @@
         <v>3547.066541309997</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9334,11 +10474,17 @@
         <v>4126.435841309997</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9367,11 +10513,17 @@
         <v>4126.435841309997</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9400,11 +10552,17 @@
         <v>5246.575441309997</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9433,11 +10591,17 @@
         <v>5772.360641309997</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9466,11 +10630,17 @@
         <v>6152.524141309997</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9499,11 +10669,17 @@
         <v>7022.968541309997</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9532,11 +10708,17 @@
         <v>7022.968541309997</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9565,11 +10747,17 @@
         <v>7675.526241309997</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9598,11 +10786,17 @@
         <v>6604.965041309997</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9631,11 +10825,17 @@
         <v>6604.965041309997</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9664,11 +10864,17 @@
         <v>6604.965041309997</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9697,11 +10903,17 @@
         <v>6604.965041309997</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9730,11 +10942,17 @@
         <v>6598.144541309997</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9763,11 +10981,17 @@
         <v>6777.825641309997</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9796,11 +11020,17 @@
         <v>7251.961841309997</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9829,11 +11059,17 @@
         <v>9609.469649899997</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9862,11 +11098,17 @@
         <v>12509.17599728</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9895,11 +11137,17 @@
         <v>13724.0159499</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9928,11 +11176,17 @@
         <v>13152.1127499</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9961,11 +11215,17 @@
         <v>11691.74584989999</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9994,11 +11254,17 @@
         <v>10513.1634499</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10027,11 +11293,17 @@
         <v>10410.2409499</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10060,11 +11332,17 @@
         <v>11525.3039499</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10093,11 +11371,17 @@
         <v>12107.5211499</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10126,11 +11410,17 @@
         <v>12013.35591596</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10159,11 +11449,17 @@
         <v>11911.11141595999</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10192,11 +11488,17 @@
         <v>11911.11141595999</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10225,11 +11527,17 @@
         <v>12005.94934968999</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10258,11 +11566,17 @@
         <v>12003.40364968999</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10291,11 +11605,17 @@
         <v>12086.29434968999</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10324,11 +11644,17 @@
         <v>12086.29434968999</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10357,11 +11683,17 @@
         <v>13330.90684968999</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10393,8 +11725,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10426,8 +11764,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10459,8 +11803,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10492,8 +11842,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10525,8 +11881,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10558,8 +11920,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10591,8 +11959,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10624,8 +11998,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10654,11 +12034,17 @@
         <v>18214.05584640999</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10687,11 +12073,17 @@
         <v>18214.05584640999</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10720,11 +12112,17 @@
         <v>17843.98114640999</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10753,11 +12151,17 @@
         <v>17843.98114640999</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10786,11 +12190,17 @@
         <v>15869.72014640999</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10819,11 +12229,17 @@
         <v>15985.08024640999</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10852,11 +12268,17 @@
         <v>16032.21712180999</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10885,11 +12307,17 @@
         <v>16017.60762180999</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10918,11 +12346,17 @@
         <v>16017.60762180999</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10951,11 +12385,17 @@
         <v>16017.60762180999</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10984,11 +12424,17 @@
         <v>16088.93252180999</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11017,11 +12463,17 @@
         <v>15988.93252180999</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11050,11 +12502,17 @@
         <v>15614.41672180999</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11083,11 +12541,17 @@
         <v>15311.36312180999</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11119,8 +12583,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11149,11 +12619,17 @@
         <v>15320.65570772999</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11185,8 +12661,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11215,11 +12697,17 @@
         <v>15098.50210772999</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11248,11 +12736,17 @@
         <v>15561.35810772999</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11281,11 +12775,17 @@
         <v>16642.87107917999</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11314,11 +12814,17 @@
         <v>16643.28867917999</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11347,11 +12853,17 @@
         <v>16643.28867917999</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11380,11 +12892,17 @@
         <v>16543.28867917999</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11413,11 +12931,17 @@
         <v>16483.81897917999</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11446,11 +12970,17 @@
         <v>16628.17320772999</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11479,11 +13009,17 @@
         <v>16481.33620772999</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11512,11 +13048,17 @@
         <v>16282.29140772999</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11545,11 +13087,17 @@
         <v>15777.86680772999</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11578,11 +13126,17 @@
         <v>18181.26570772999</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11611,11 +13165,17 @@
         <v>18003.95690772999</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11647,8 +13207,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11680,8 +13246,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11710,11 +13282,17 @@
         <v>17948.73650772999</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11746,8 +13324,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11776,11 +13360,17 @@
         <v>17931.51441272999</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11809,11 +13399,17 @@
         <v>17780.46931272999</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11842,11 +13438,17 @@
         <v>17623.03561272999</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11875,11 +13477,17 @@
         <v>17623.03561272999</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11908,11 +13516,17 @@
         <v>17588.44701272999</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11941,11 +13555,17 @@
         <v>17368.11941272999</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11974,11 +13594,17 @@
         <v>17368.11941272999</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12007,11 +13633,17 @@
         <v>17414.51067091999</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12040,11 +13672,17 @@
         <v>17411.46417091999</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12073,11 +13711,17 @@
         <v>17596.04211272999</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12109,8 +13753,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12142,8 +13792,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12175,8 +13831,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12208,8 +13870,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12238,11 +13906,17 @@
         <v>17521.35941272999</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12274,8 +13948,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12307,8 +13987,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12340,8 +14026,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12373,8 +14065,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12406,8 +14104,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12439,8 +14143,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12472,8 +14182,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12505,8 +14221,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12538,8 +14260,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12571,8 +14299,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12604,8 +14338,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12637,8 +14377,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12670,8 +14416,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12703,8 +14455,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12736,8 +14494,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12769,8 +14533,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12802,8 +14572,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12835,8 +14611,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12868,8 +14650,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12901,8 +14689,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12934,8 +14728,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12967,8 +14767,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13000,8 +14806,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13033,8 +14845,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13066,8 +14884,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13099,8 +14923,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13132,8 +14962,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13165,8 +15001,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13198,8 +15040,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13231,8 +15079,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13264,8 +15118,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13297,8 +15157,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13330,8 +15196,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13360,11 +15232,17 @@
         <v>24150.04059090998</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13396,8 +15274,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13426,11 +15310,17 @@
         <v>23812.44279090998</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13462,8 +15352,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13495,8 +15391,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13528,8 +15430,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13561,8 +15469,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13594,8 +15508,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13627,8 +15547,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13660,8 +15586,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13693,8 +15625,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13726,8 +15664,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13759,8 +15703,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13792,8 +15742,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13825,8 +15781,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13858,8 +15820,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13891,8 +15859,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13924,8 +15898,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13957,8 +15937,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13990,8 +15976,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14023,8 +16015,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14053,15 +16051,23 @@
         <v>35771.40317208997</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>7710</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
+        <v>1.210953307392996</v>
+      </c>
+      <c r="M400" t="n">
+        <v>1.001298701298701</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -14086,7 +16092,7 @@
         <v>35482.32657208997</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14119,7 +16125,7 @@
         <v>36434.90407208997</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14152,7 +16158,7 @@
         <v>36434.90407208997</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14185,7 +16191,7 @@
         <v>35608.53007208997</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14218,7 +16224,7 @@
         <v>34974.62637208997</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14251,7 +16257,7 @@
         <v>35225.95747208997</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14317,7 +16323,7 @@
         <v>34770.25837208997</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14416,7 +16422,7 @@
         <v>35067.15847997997</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14449,7 +16455,7 @@
         <v>34876.50467997997</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14482,7 +16488,7 @@
         <v>34242.65867997997</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14515,7 +16521,7 @@
         <v>33994.47177997997</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14581,7 +16587,7 @@
         <v>34986.45437997997</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14614,7 +16620,7 @@
         <v>35447.08113799997</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14647,7 +16653,7 @@
         <v>35292.73623799998</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14680,7 +16686,7 @@
         <v>35183.08113799997</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14713,7 +16719,7 @@
         <v>35183.08113799997</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14746,7 +16752,7 @@
         <v>35333.09003799997</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14779,7 +16785,7 @@
         <v>34985.15503799998</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14812,7 +16818,7 @@
         <v>34985.15503799998</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14845,7 +16851,7 @@
         <v>34840.10963799997</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14878,7 +16884,7 @@
         <v>35023.32593799997</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14911,7 +16917,7 @@
         <v>35023.32593799997</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14944,7 +16950,7 @@
         <v>35023.32593799997</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14977,7 +16983,7 @@
         <v>35320.18113799997</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15010,7 +17016,7 @@
         <v>35320.18113799997</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15043,7 +17049,7 @@
         <v>36042.89923799997</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15241,7 +17247,7 @@
         <v>38765.29566067997</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15274,7 +17280,7 @@
         <v>38181.80663939997</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15307,7 +17313,7 @@
         <v>38633.13871811997</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15340,7 +17346,7 @@
         <v>38067.40811811997</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15373,7 +17379,7 @@
         <v>35136.58331811996</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15406,7 +17412,7 @@
         <v>35587.33825409997</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15439,7 +17445,7 @@
         <v>35587.33825409997</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15472,7 +17478,7 @@
         <v>35315.80945409997</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15505,7 +17511,7 @@
         <v>36069.48705409997</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15538,7 +17544,7 @@
         <v>35022.14435409997</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15571,7 +17577,7 @@
         <v>34124.24463281997</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15604,7 +17610,7 @@
         <v>33470.84213281997</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15637,7 +17643,7 @@
         <v>32696.59546539997</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15670,7 +17676,7 @@
         <v>29591.53896539997</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -24316,7 +26322,7 @@
         <v>43087.75548502996</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -27517,7 +29523,7 @@
         <v>34703.17267151995</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27583,7 +29589,7 @@
         <v>37237.54397151995</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27616,7 +29622,7 @@
         <v>36650.73897151995</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27649,7 +29655,7 @@
         <v>36650.73897151995</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27748,7 +29754,7 @@
         <v>37076.49977151995</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27781,7 +29787,7 @@
         <v>37959.17047151995</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27814,7 +29820,7 @@
         <v>37896.15187151995</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27847,7 +29853,7 @@
         <v>37896.15187151995</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27880,7 +29886,7 @@
         <v>37616.29467151995</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27913,7 +29919,7 @@
         <v>37616.29467151995</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27946,7 +29952,7 @@
         <v>37699.07307151995</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
